--- a/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalSurvivor\Client\Dev\AnimalSurvivor\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A24089-3D60-49B0-A983-5329689FD229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B101A71D-3645-4D56-B73F-D528D8A261BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7065" windowWidth="29040" windowHeight="15225" xr2:uid="{6BD970DF-6B65-4DEA-B5C7-C9E99163695A}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Badger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Enemy\Dear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs\Enemy\Dog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +131,14 @@
   </si>
   <si>
     <t>Prefabs\Enemy\Rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Enemy\Deer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,6 +544,7 @@
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -565,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -605,16 +606,16 @@
         <v>1000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -623,7 +624,7 @@
         <v>0.9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,16 +632,16 @@
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -649,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -660,13 +661,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
@@ -675,7 +676,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -686,13 +687,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -701,7 +702,7 @@
         <v>1.2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -712,13 +713,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -727,7 +728,7 @@
         <v>1.3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -738,13 +739,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>10</v>
@@ -753,7 +754,7 @@
         <v>1.4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
@@ -779,7 +780,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -790,13 +791,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3">
         <v>10</v>
@@ -805,7 +806,7 @@
         <v>1.6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B101A71D-3645-4D56-B73F-D528D8A261BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBC4E5A-48B3-46ED-8231-32B94014AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7065" windowWidth="29040" windowHeight="15225" xr2:uid="{6BD970DF-6B65-4DEA-B5C7-C9E99163695A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="14970" xr2:uid="{6BD970DF-6B65-4DEA-B5C7-C9E99163695A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,9 +101,6 @@
   <si>
     <t>prefab_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experience</t>
   </si>
   <si>
     <t>Prefabs\Enemy\Badger</t>
@@ -206,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,9 +211,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6560F0-EC42-40DB-90D0-3A3EAFDECCE8}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,12 +538,11 @@
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,16 +559,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,16 +582,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
@@ -612,48 +599,42 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>75</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>0.9</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
       </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
@@ -664,22 +645,19 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>85</v>
       </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
@@ -690,22 +668,19 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>90</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1.2</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
@@ -716,22 +691,19 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>95</v>
       </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>1.3</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
@@ -742,22 +714,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1.4</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1006</v>
       </c>
@@ -768,22 +737,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>105</v>
       </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>1.5</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1007</v>
       </c>
@@ -794,19 +760,16 @@
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>110</v>
       </c>
-      <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1.6</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBC4E5A-48B3-46ED-8231-32B94014AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="14970" xr2:uid="{6BD970DF-6B65-4DEA-B5C7-C9E99163695A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,28 +32,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monstername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>movespeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxhp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attackspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,13 +119,37 @@
   </si>
   <si>
     <t>Prefabs\Enemy\Deer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +219,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6560F0-EC42-40DB-90D0-3A3EAFDECCE8}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,67 +549,74 @@
     <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>75</v>
@@ -607,22 +624,25 @@
       <c r="F3" s="2">
         <v>0.9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -630,22 +650,25 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>85</v>
@@ -653,22 +676,25 @@
       <c r="F5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>90</v>
@@ -676,22 +702,25 @@
       <c r="F6" s="2">
         <v>1.2</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
         <v>95</v>
@@ -699,22 +728,25 @@
       <c r="F7" s="2">
         <v>1.3</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -722,22 +754,25 @@
       <c r="F8" s="2">
         <v>1.4</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>105</v>
@@ -745,22 +780,25 @@
       <c r="F9" s="2">
         <v>1.5</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>110</v>
@@ -768,12 +806,16 @@
       <c r="F10" s="2">
         <v>1.6</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
+      <c r="G10" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -639,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/enemy_data.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>75</v>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>85</v>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>90</v>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>95</v>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
         <v>105</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>110</v>
